--- a/data/trans_orig/P33_MIN_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Habitat-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,75; 51,16</t>
+          <t>36,4; 50,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,8; 48,25</t>
+          <t>33,74; 47,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,92; 46,79</t>
+          <t>36,5; 47,05</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 37,24</t>
+          <t>7,71; 37,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,61; 49,36</t>
+          <t>39,36; 48,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 40,55</t>
+          <t>13,38; 40,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,96; 46,49</t>
+          <t>35,44; 47,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 33,56</t>
+          <t>5,1; 33,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 37,44</t>
+          <t>11,61; 37,59</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,1; 40,65</t>
+          <t>32,8; 40,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,42; 42,17</t>
+          <t>30,98; 42,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,05; 39,43</t>
+          <t>33,17; 39,77</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,31; 39,03</t>
+          <t>18,8; 39,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 38,31</t>
+          <t>19,02; 38,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,52; 37,81</t>
+          <t>22,82; 37,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_MIN_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Habitat-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas durante las cuales se echan la siesta en minutos</t>
+          <t>Nº medio de minutos durante los cuales la población se echa la siesta</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
